--- a/data/Testing.xlsx
+++ b/data/Testing.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -167,6 +167,24 @@
   </si>
   <si>
     <t>23N237</t>
+  </si>
+  <si>
+    <t>Shreayaa Srinivasan</t>
+  </si>
+  <si>
+    <t>23I359</t>
+  </si>
+  <si>
+    <t>Ram Smaran</t>
+  </si>
+  <si>
+    <t>24pc22</t>
+  </si>
+  <si>
+    <t>Deepak raj M R</t>
+  </si>
+  <si>
+    <t>22R206</t>
   </si>
 </sst>
 </file>
@@ -330,10 +348,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -341,13 +359,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -355,13 +373,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -478,7 +496,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D24" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D27" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="4">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1024,16 +1042,58 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13">
+      <c r="A24" s="10">
         <v>45944.79860461806</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7">
+        <v>45944.81411791667</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10">
+        <v>45944.81880435185</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13">
+        <v>45944.83241290509</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/Testing.xlsx
+++ b/data/Testing.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cybersec\ctf_backend-1\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB6B1F0-A46B-4ABB-A996-18E8AE08655D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -190,18 +199,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -212,11 +222,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -230,6 +246,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -244,6 +261,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -258,6 +276,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -272,6 +291,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -286,6 +306,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -300,6 +321,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -314,6 +336,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -328,6 +351,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -342,6 +366,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -356,6 +381,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -370,6 +396,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -384,131 +411,112 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D27" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:D27">
   <tableColumns count="4">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Roll no" id="3"/>
-    <tableColumn name="Do You have previous experience in CTF" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Roll no"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Do You have previous experience in CTF"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -698,28 +706,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="18.88"/>
-    <col customWidth="1" min="4" max="4" width="34.13"/>
-    <col customWidth="1" min="5" max="10" width="18.88"/>
+    <col min="1" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="5" max="10" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45943.74893829861</v>
       </c>
@@ -747,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45943.748962488426</v>
       </c>
@@ -761,23 +772,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>45943.74954837963</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>45943.75116185185</v>
+        <v>45943.751161851847</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
@@ -789,23 +800,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10">
-        <v>45943.75124590278</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45943.751245902778</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>45943.75437715278</v>
+        <v>45943.754377152778</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>16</v>
@@ -817,21 +828,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="10">
-        <v>45943.76006331018</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45943.760063310183</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45943.76215274306</v>
       </c>
@@ -845,23 +856,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>45943.764412731485</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>45943.76607546296</v>
+        <v>45943.766075462961</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>24</v>
@@ -873,21 +884,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="10">
-        <v>45943.76830239584</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45943.768302395838</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45943.77025483796</v>
       </c>
@@ -901,23 +912,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="10">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>45943.77380221065</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>45943.79353568287</v>
+        <v>45943.793535682868</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>32</v>
@@ -929,23 +940,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="10">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>45943.836040208334</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>45943.85637949074</v>
+        <v>45943.856379490739</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>36</v>
@@ -957,23 +968,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="10">
-        <v>45943.86792982639</v>
-      </c>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45943.867929826389</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>45943.86803291667</v>
+        <v>45943.868032916667</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>40</v>
@@ -985,23 +996,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="10">
-        <v>45943.88860939815</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45943.888609398149</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>45943.91949835648</v>
+        <v>45943.919498356481</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>44</v>
@@ -1013,23 +1024,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="10">
-        <v>45944.79507983796</v>
-      </c>
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45944.795079837961</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>45944.79513730324</v>
+        <v>45944.795137303241</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>48</v>
@@ -1041,23 +1052,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="10">
-        <v>45944.79860461806</v>
-      </c>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45944.798604618059</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>45944.81411791667</v>
+        <v>45944.814117916671</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>52</v>
@@ -1069,38 +1080,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="10">
-        <v>45944.81880435185</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45944.818804351853</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="13">
-        <v>45944.83241290509</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>45944.832412905089</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="12" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>